--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>8,62%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,22; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,18</t>
+          <t>0,58; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,16</t>
+          <t>1,88; 9,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,58</t>
+          <t>2,3; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,46; 9,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,09</t>
+          <t>8,77; 20,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,85</t>
+          <t>1,47; 3,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 20,63</t>
+          <t>2,65; 5,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 3,36</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 5,29</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,86; 11,98</t>
+          <t>5,92; 12,7</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,21%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>9,41%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,38; 5,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,29</t>
+          <t>1,81; 5,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,8</t>
+          <t>3,66; 9,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,95</t>
+          <t>5,08; 9,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,49; 8,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 9,3</t>
+          <t>7,29; 15,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,77</t>
+          <t>4,12; 6,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,1</t>
+          <t>3,49; 5,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 6,65</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 6,13</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 11,82</t>
+          <t>6,79; 12,06</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>12,97%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,9; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,64</t>
+          <t>3,99; 7,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,6</t>
+          <t>6,53; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,88</t>
+          <t>13,13; 18,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,97; 12,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,59</t>
+          <t>12,88; 19,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,92</t>
+          <t>9,08; 12,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 19,72</t>
+          <t>6,49; 9,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 12,61</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,61; 9,6</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>10,9; 14,99</t>
+          <t>10,77; 14,97</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,87%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>20,01%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,43; 16,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,9</t>
+          <t>11,32; 16,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,79</t>
+          <t>5,86; 20,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 20,32</t>
+          <t>19,36; 26,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>18,57; 25,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,41</t>
+          <t>23,46; 30,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 24,97</t>
+          <t>15,78; 20,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,55; 30,88</t>
+          <t>15,79; 20,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>15,65; 20,26</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15,74; 20,1</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>12,55; 24,49</t>
+          <t>11,61; 24,36</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>35,92%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>31,17%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>33,23%</t>
         </is>
@@ -1284,62 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>21,64; 30,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 30,42</t>
+          <t>19,58; 27,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,59; 27,81</t>
+          <t>23,89; 30,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,99; 31,05</t>
+          <t>40,43; 50,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>34,15; 43,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,73; 50,71</t>
+          <t>36,13; 42,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,03; 43,23</t>
+          <t>32,44; 39,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,22; 42,24</t>
+          <t>27,98; 34,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>32,91; 39,28</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>27,83; 34,3</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>30,91; 35,56</t>
+          <t>30,87; 35,69</t>
         </is>
       </c>
     </row>
@@ -1356,60 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50,99%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>56,84%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>43,78%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>30,13%</t>
         </is>
@@ -1424,62 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>44,49; 57,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,94; 56,72</t>
+          <t>28,6; 38,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,43; 39,07</t>
+          <t>25,04; 32,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,98; 32,39</t>
+          <t>56,43; 66,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>47,83; 58,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,32; 67,45</t>
+          <t>12,81; 48,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,58; 58,07</t>
+          <t>53,11; 60,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 47,61</t>
+          <t>39,92; 47,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>53,14; 61,01</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>40,16; 47,46</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,39; 38,89</t>
+          <t>16,59; 39,03</t>
         </is>
       </c>
     </row>
@@ -1496,60 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66,4%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>68,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>73,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>68,74%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>73,8%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>58,29%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>58,67%</t>
         </is>
@@ -1564,62 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>59,88; 72,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>59,91; 72,1</t>
+          <t>44,7; 56,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,54; 56,6</t>
+          <t>38,9; 48,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,6; 48,13</t>
+          <t>73,87; 82,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>57,05; 68,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,77; 82,78</t>
+          <t>65,55; 71,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,0; 68,69</t>
+          <t>70,12; 77,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>65,25; 71,85</t>
+          <t>53,9; 62,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>69,76; 77,18</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>54,16; 62,36</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>56,02; 61,61</t>
+          <t>55,8; 61,57</t>
         </is>
       </c>
     </row>
@@ -1636,60 +1403,45 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>23,21%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>20,46%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>23,63%</t>
         </is>
@@ -1704,62 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,73; 18,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,65; 18,48</t>
+          <t>13,72; 16,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,23</t>
+          <t>13,6; 18,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,0</t>
+          <t>27,69; 30,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,22; 27,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,61</t>
+          <t>24,13; 32,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>22,16; 24,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,29</t>
+          <t>19,41; 21,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 24,29</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 21,47</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,37</t>
+          <t>20,31; 25,31</t>
         </is>
       </c>
     </row>
@@ -1772,19 +1509,1470 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3956</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6332</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18464</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16116</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24826</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42979</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20072</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31158</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61443</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>985; 10932</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2417; 12901</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7527; 39809</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9912; 25249</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17640; 36239</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27478; 63260</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13008; 31054</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21621; 44750</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42224; 90584</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25170</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18371</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25178</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42366</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35776</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62879</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67536</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54147</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>88056</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16386; 37543</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10672; 29544</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15483; 39858</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30992; 57669</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>25294; 48382</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37325; 81891</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53419; 85411</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40280; 69045</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>63549; 112829</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37926</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37304</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47150</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>111919</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>67764</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>99236</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>149844</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>105068</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>146386</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26604; 53069</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26675; 50559</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35023; 61325</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93352; 134151</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52718; 83859</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>76262; 116659</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>126437; 173612</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86284; 127277</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>121504; 168957</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>80112</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>89738</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>122500</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>139841</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>141205</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>197741</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>219953</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>230943</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>320241</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>64128; 100020</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73150; 107612</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52041; 177585</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>119293; 162160</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>120517; 162506</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>167224; 219673</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>194174; 247645</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>204461; 262685</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>185812; 389991</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>111600</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>111340</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>153379</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>203459</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>192519</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>215231</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>315059</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>303858</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>368610</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92913; 130705</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>93556; 132861</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>134070; 172938</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>181066; 225396</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>169655; 215604</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>197931; 231971</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>284567; 343545</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>272777; 334804</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>342346; 395814</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>157947</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>112445</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>105434</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>219370</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>199315</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>188816</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>377317</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>311759</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>294250</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>137820; 176977</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>95605; 130196</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>92204; 119345</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>199756; 237037</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>180685; 219556</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>77961; 292506</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>352552; 403940</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>284280; 340016</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>162040; 381159</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>165895</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>130997</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>122991</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>305540</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>252059</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>292721</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>471435</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>383055</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>415712</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>149601; 181396</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>114879; 144990</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>109979; 136131</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>287320; 321830</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>228287; 272937</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>279126; 304972</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>447978; 494957</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>354210; 410734</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>395421; 436265</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>582606</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>506527</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>595095</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1038610</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>913463</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1099603</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1621216</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1419989</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1694698</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>539147; 628616</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>465684; 548403</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>470623; 656562</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>985463; 1095935</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>858554; 967781</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>895754; 1194646</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1547932; 1698386</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1346697; 1488780</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1456828; 1814962</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>